--- a/export/phieumuon.xlsx
+++ b/export/phieumuon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Mã</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Ngày mượn</t>
   </si>
   <si>
-    <t>Ngày trả</t>
+    <t>Hạn trả</t>
   </si>
   <si>
     <t>Tổng tiền</t>
@@ -72,6 +72,78 @@
   </si>
   <si>
     <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Lê Tạ Nguyệt Minh</t>
+  </si>
+  <si>
+    <t>02/04/2024</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>16,100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Trịnh Hoàng Tuấn</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>19,700</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
+  </si>
+  <si>
+    <t>50,500</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19,900</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Nhật</t>
+  </si>
+  <si>
+    <t>33,100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13,700</t>
   </si>
 </sst>
 </file>
@@ -159,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -167,7 +239,7 @@
   <cols>
     <col min="1" max="1" width="5.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.87890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.22265625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.26953125" customWidth="true" bestFit="true"/>
@@ -253,6 +325,146 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
